--- a/data/aaa.xlsx
+++ b/data/aaa.xlsx
@@ -118,6 +118,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -511,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -533,13 +536,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -553,6 +549,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -953,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -965,14 +985,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="36"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
       <c r="C2" t="s">
         <v>7</v>
       </c>
@@ -1016,102 +1036,115 @@
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="B8" s="26">
+        <v>43342</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="B9" s="27">
+        <v>43342.847233796296</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="B10" s="28">
+        <v>10000</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="B11">
+        <f>B10*100</f>
+        <v>1000000</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="27"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="29"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="29"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="29"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="29"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="29"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="29"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>

--- a/data/aaa.xlsx
+++ b/data/aaa.xlsx
@@ -118,8 +118,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -549,8 +551,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -573,9 +573,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -974,7 +976,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -985,14 +987,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="35"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" t="s">
         <v>7</v>
       </c>
@@ -1036,7 +1038,7 @@
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="36">
         <v>43342</v>
       </c>
     </row>
@@ -1044,7 +1046,7 @@
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="34">
         <v>43342.847233796296</v>
       </c>
     </row>
@@ -1052,7 +1054,7 @@
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="26">
         <v>10000</v>
       </c>
     </row>
@@ -1084,7 +1086,7 @@
       <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="21"/>
@@ -1093,7 +1095,7 @@
       <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="21"/>
@@ -1102,7 +1104,7 @@
       <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="21"/>
@@ -1111,7 +1113,7 @@
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="21"/>
@@ -1120,7 +1122,7 @@
       <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="21"/>
@@ -1129,7 +1131,7 @@
       <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="21"/>
@@ -1138,7 +1140,7 @@
       <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="23"/>

--- a/data/aaa.xlsx
+++ b/data/aaa.xlsx
@@ -121,7 +121,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -178,7 +178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -507,6 +507,86 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -516,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -574,10 +654,37 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -973,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -987,14 +1094,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="36"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
       <c r="C2" t="s">
         <v>7</v>
       </c>
@@ -1038,7 +1145,7 @@
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <v>43342</v>
       </c>
     </row>
@@ -1148,10 +1255,26 @@
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
     </row>
-    <row r="21" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C22" s="37"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="38"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C23" s="39"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="40"/>
+    </row>
+    <row r="24" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="41"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C22:E24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/aaa.xlsx
+++ b/data/aaa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ExcelからXSL-FOへの変換テスト</t>
     <rPh sb="15" eb="17">
@@ -111,6 +111,17 @@
   </si>
   <si>
     <t>SLANTED_DASH_DOT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦書き</t>
+    <rPh sb="0" eb="2">
+      <t>タテガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ああーーー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -596,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -661,29 +672,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1082,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1091,6 +1108,8 @@
     <col min="1" max="1" width="27.125" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="5" max="5" width="3.125" customWidth="1"/>
+    <col min="6" max="6" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
@@ -1114,12 +1133,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1258,18 +1283,18 @@
     <row r="21" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C22" s="37"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C23" s="39"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
     </row>
     <row r="24" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="41"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
